--- a/app/templates/report/dashboard.dep.xlsx
+++ b/app/templates/report/dashboard.dep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040B252-9959-4904-8680-7C9C8DB16FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31835243-7F2C-4BBD-9992-E8911B836F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Id reserva</t>
   </si>
@@ -66,15 +66,19 @@
   </si>
   <si>
     <t>Fecha devuelta</t>
+  </si>
+  <si>
+    <t>Retenida temporalmente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;Sí&quot;;;&quot;No&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -103,6 +107,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -184,7 +189,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -214,11 +219,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -226,7 +234,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -604,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,18 +641,20 @@
     <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="24.85546875" style="1"/>
+    <col min="10" max="10" width="16.28515625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="7"/>
       <c r="G1" s="7"/>
       <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -657,8 +682,11 @@
       <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -668,16 +696,22 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="J3" s="13"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:J99999">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$J3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
